--- a/Fallacies.xlsx
+++ b/Fallacies.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960BFB42-33DF-430D-80E5-70F13E3B0C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1EB77-E6FD-40BC-AA54-713A3649AA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>Appeal to Common Opinion</t>
   </si>
@@ -124,9 +129,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Abuse Ad Hominem</t>
   </si>
   <si>
@@ -227,6 +229,237 @@
   </si>
   <si>
     <t>Assuming that because something is now the practice, it ought to be the practice. Conversely, assuming that because something is not now the practice, it ought not to be the practice.</t>
+  </si>
+  <si>
+    <t>MR PARKER: My political opponent, Representative Ritchie, is not telling the truth when he says that he has never missed a single roll-call vote in the House of Representatives during his long tenure. According to the Congressional Record, Mr. Ritchie missed either roll-call votes during his first term.
+MR RITCHIE: Mr. Parker, is the Congressional Record the only piece of reading material that they allowed you to read at the mental hospital where you were a patient during my first term?</t>
+  </si>
+  <si>
+    <t>Do you really expect me to dignify your comments against my proposal by responding to them? They simply confirm what I’ve always thought about you, anyway. Your thinking is shallow, naïve, and uninformed. And I feel that you’re wasting my time.</t>
+  </si>
+  <si>
+    <t>I don’t see why you don’t want to take your husband’s name when you get married. The vast majority of Americans obviously think it should be done that way. It’s hard to believe that that many people could be wrong!</t>
+  </si>
+  <si>
+    <t>But, officer, you shouldn’t give me a parking ticket for parking here! People park here all the time and never get tickets. I myself have been parking here for several months. No one pays any attention to the “No Parking” sign in this alley.</t>
+  </si>
+  <si>
+    <t>What’s wrong with you taking my name when we get married, Kim? It would really be embarrassing to me if we got married and you refused to take my name. In fact, I don’t think I would want to be part of a relationship in which you would show me that kind of disrespect.</t>
+  </si>
+  <si>
+    <t>If the faculty and staff of this college aren’t willing to endorse my reelection to Congress, it may be a long time before you get that new off-ramp that you’ve been wanting – one that leads directly from the interstate to your campus.</t>
+  </si>
+  <si>
+    <t>JOY: Did you know that interference from in-laws is the number one cause of divorce in this country?
+TERESA: Really? How do you know?
+JOY: I heard it on Oprah yesterday.</t>
+  </si>
+  <si>
+    <t>Your honor, Dr. Chamberlain is a respected psychiatrist and has been a friend of the defendant’s family for many years. She is in a unique position to be able to testify as to the state of the defendant’s mental health at the time of the crime.</t>
+  </si>
+  <si>
+    <t>Professor Beamer, are you sure you want to openly oppose this new curricular proposal? You know that both the president and the dean are pushing it pretty hard, and you don’t have tenure yet!</t>
+  </si>
+  <si>
+    <t>Rachel, I just can’t vote for him, even though I agree with what you say about the two candidates. It’s just that we have always been Democrats. I’m not sure that I could live with myself if I voted for a Republican.</t>
+  </si>
+  <si>
+    <t>Tal, you can’t be serious about going to Annapolis! Our family has always been army – your brother, your father, your uncles, and even your grandfather. All of them, as you well know, went to West Point.</t>
+  </si>
+  <si>
+    <t>People who are homeless in our city must be happy with their situation right now. There haven’t been any protest marches or any loud voices of dissent about how the city is handling homelessness for some time.</t>
+  </si>
+  <si>
+    <t>I’m sorry, Ms. Dobkins, but we cannot approve your loan application. We must assume that you don’t have good credit because there’s no record indicating that you have ever made any monthly installment or credit card payments.</t>
+  </si>
+  <si>
+    <t>ROY: Why should I do what the Bible says?
+DOROTHY: Because the Bible is the inspired word of God.
+ROY: But how do you know that the Bible is actually divinely inspired?
+DOROTHY: Because it says in the third chapter of II Timothy that “all Scripture is given by inspiration of God.”</t>
+  </si>
+  <si>
+    <t>PROFESSOR TAVERNER: Evolutionary development has demonstrated that only the fittest of organisms survive.
+STUDENT: How has that been demonstrated?
+PROFESSOR TAVERNER: Well, if organisms survive, they must be fit, right?
+STUDENT: Yes, but how do you know that it is only the most fit of the organisms that survive?
+PROFESSOR TAVERNER: Those creatures that have survived obviously were better fitted for survival than those that did not survive.</t>
+  </si>
+  <si>
+    <t>MOTHER: I think it would be a good idea for us to encourage the children to watch less television and to get more physical exercise.
+FATHER: You think I’ve let the kids become a bunch of lazy, unhealthy television addicts, don’t you?</t>
+  </si>
+  <si>
+    <t>DAUGHTER: If two people really love each other and have committed themselves to each other, I don’t see any reason why they shouldn’t live together. Tom and I really do love each other, Mother. Someday we may get married, but right now we simply want to be close to each other.
+MOTHER: The way I see it, you’re just looking for an excuse to go to bed together. Your whole attitude about this thing makes sex something cheap!</t>
+  </si>
+  <si>
+    <t>One of Senator Fisher’s constituents asks, “Are you planning on supporting our troops and voting for the president’s defense budget?”</t>
+  </si>
+  <si>
+    <t>ELIJAH: Don’t you have any other houses in our price range to show us?
+REAL ESTATE BROKER: I’ve shown you everything in town that is available. Well, there is one other tacky little house that we could look at…if you want.</t>
+  </si>
+  <si>
+    <t>The voters of Massachusetts overwhelmingly defeated a proposed gun-control law in the state, which proves that gun control is not a good idea.</t>
+  </si>
+  <si>
+    <t>I just don’t understand why you’re opposing federal aid to parochial schools. We Catholics know how badly our schools are in need of financial resources. If this bill for financial assistance to parochial schools doesn’t pass the Congress, it will probably mean that many of our schools will have to close their doors.</t>
+  </si>
+  <si>
+    <t>David says to his colleague Richard: “When are you going to show some moral courage and boycott Wal-Mart?”</t>
+  </si>
+  <si>
+    <t>I didn’t betray your confidence. I just thought your parents should know what you told me.</t>
+  </si>
+  <si>
+    <t>I didn’t lie to you; I merely stretched the truth a bit.</t>
+  </si>
+  <si>
+    <t>Grades don’t really give us much information about a student. If a prospective employer or graduate school were to find from a transcript that a student got a B- in a particular course, very little could be inferred about the particular character or quality of his or her work in that course. Hence, I think that we ought to go to a simple pass-fail system.</t>
+  </si>
+  <si>
+    <t>Many people without Ph.D.’s are much better teachers than people with Ph.D.’s. Getting a Ph.D. doesn’t make one a better teacher. Therefore, I don’t think we should hire a person with a Ph.D. to fill this position in our chemistry department.</t>
+  </si>
+  <si>
+    <t>Just as you can know that the wind exists because you can feel it, even though you cannot see it, God exists, because even though you cannot see him, you can feel his presence.</t>
+  </si>
+  <si>
+    <t>According to our judicial system, a person is innocent until proven guilty. Hence, the investigation of William Smith, the president’s security advisor, was simply an effort by the media and the Senate to damage the reputation of an innocent man.</t>
+  </si>
+  <si>
+    <t>I am quite confident that the Board of Trustees will exercise superior judgment and skill in handling the affairs of this institution. After all, each of the members of the board has demonstrated superior judgment and skill in handling his or her own personal and business affairs.</t>
+  </si>
+  <si>
+    <t>I don’t see why you have criticized this novel as implausible. There isn’t a single incident in it that couldn’t have happened.</t>
+  </si>
+  <si>
+    <t>Because the Democratic Party supports a program of national health insurance, I assume that our Democratic representative, Congressman Boucher, supports such a program.</t>
+  </si>
+  <si>
+    <t>The University of Virginia is one of the best universities in this country, so it must have an outstanding philosophy department. Why don’t you apply to do graduate work in philosophy there?</t>
+  </si>
+  <si>
+    <t>AMIR: Woah Barbara, maybe you should do some more research before investing so much money in those high risk stocks.
+BARBARA: YOLO! (“you only live once”)</t>
+  </si>
+  <si>
+    <t>MARSHA: If that were a child of mine, I would have given him a good spanking rather than just sitting down and talking with him about his behavior as you did.
+DAVID: Why do you think that your method is better?
+MARSHA: I just think that if you spare the rod, you spoil the child.</t>
+  </si>
+  <si>
+    <t>JUDGE: I have heard contradictory testimony from the two principal witnesses in this case. I can only conclude that the truth must lie somewhere in between.</t>
+  </si>
+  <si>
+    <t>Some students want our single-sex residence halls to be completely open to members of the opposite sex, twenty-four hours a day. Others want a closed-dorm policy, that is, one that makes the dorms off-limits to any member of the opposite sex, any time. Wouldn’t the best solution be to have the dorms open about twelve hours a day, perhaps from noon to midnight?</t>
+  </si>
+  <si>
+    <t>Did you vote for Bush for president because he is a Republican or because of his stand on stem cell research?</t>
+  </si>
+  <si>
+    <t>The way I see it, we must either spend enough money on our football program to make us competitive with some of the better teams in this region or simply drop the program altogether.</t>
+  </si>
+  <si>
+    <t>Why are you signing up for classes again? You’ve failed multiple courses before and even dropped out. Face it, you’re just not smart enough for college.</t>
+  </si>
+  <si>
+    <t>No, I don’t want my boy to join the Boy Scouts. Did you know that the Boy Scouts were organized as a paramilitary organization? They even trained the young boys in accordance with a military scouting manual. The word scouts in Boy Scouts literally refers to military scouts. None of my children is going to join such an organization with my blessing.</t>
+  </si>
+  <si>
+    <t>I don’t care what the university report on video games says. I know that playing violent video games does encourage people to commit violent crimes.</t>
+  </si>
+  <si>
+    <t>PROFESSOR TO STUDENT: Why should we meet to discuss your grade on your last test? I read it very carefully, and the grade I gave you is the grade that you deserved. I don’t need to hear about how I might have misunderstood you.</t>
+  </si>
+  <si>
+    <t>MAXINE: Give me some time to think about this, Gene. Whether to have sex with someone is a very important decision. I want to try to make a rational decision about this.
+GENE: Look, Maxine! Having sex with someone isn’t something people make rational decisions about.</t>
+  </si>
+  <si>
+    <t>A time-share salesperson: “You mean that after we flew you down here to Florida at no cost to you, put you up in a Gold Crown resort for three days with all meals provided, and took you to Disney World, you’re not going to buy one of our time-shares?”</t>
+  </si>
+  <si>
+    <t>I think that we ought to give the Teacher of the Year award to Professor Raley. Ever since his wife died last year, he just hasn’t been the same. I think that this award would really lift his spirits. He always seems so sad. I think this year has been hard for him. And he’s not really that bad a teacher.</t>
+  </si>
+  <si>
+    <t>If a state trooper is justified in using an unmarked car in order to catch speeders, and if there is nothing wrong with deceiving a friend about his or her surprise birthday, then how can you say that “deception is morally wrong.”</t>
+  </si>
+  <si>
+    <t>RESORT MANAGER: I’m sorry, but you can’t bring that dog in here. We have a rule against any animals here.
+MARK: But he’s my wife’s guide dog; she’s blind.
+RESORT MANAGER: I’m sorry, but we have to enforce the rule or we would have a whole menagerie here.</t>
+  </si>
+  <si>
+    <t>PARISHIONER TO PRIEST: You’ve never been married, so why should I listen to your advice concerning my marital problems? How could you possibly know what you’re talking about?</t>
+  </si>
+  <si>
+    <t>Don’t tell me how to raise my children! I don’t care how much you’ve studied child psychology; if you don’t have any children of your own, you can’t possibly understand kids.</t>
+  </si>
+  <si>
+    <t>CELESTE: I’ve thought about this for a long time, and I’ve come to the conclusion that sane people do not commit suicide.
+CHRIS: What about your friend, Laura, who surprised you and everyone when she committed suicide? She was certainly not insane.
+CELESTE: Well, she certainly seemed sane, but I guess we didn’t know the real story.</t>
+  </si>
+  <si>
+    <t>SEAN: The criminal mind simply cannot be rehabilitated. The prisons are wasting time and resources.
+JEANNIE: That’s not true, I know several criminals who have been completely rehabilitated as a result of their prison experiences.
+SEAN: Well, then, those people must never have had a truly criminal mind.</t>
+  </si>
+  <si>
+    <t>It’s supposed to be in the low twenties tonight, so surely we’re not going to the football game, are we?</t>
+  </si>
+  <si>
+    <t>Yes, I subscribe to Playboy, but I do it for the great articles in there. There was a great piece last month about Iraqi veterans suffering from posttraumatic stress disorder.</t>
+  </si>
+  <si>
+    <t>I wasn’t invited, but I wouldn’t have gone anyway. I just don’t care to spend my time with such snobs. Besides, I’ve already been skiing twice this winter.</t>
+  </si>
+  <si>
+    <t>You shouldn’t complain about not being able to find a parking place near your classroom. When I went to college, we weren’t even allowed to have cars on campus.</t>
+  </si>
+  <si>
+    <t>STUDENT: The opinions of the students are completely ignored in the process of determining both curricular changes and social programs. The students should have a much greater voice in campus governance, because we have a very great stake in this institution, and we think that we have a positive contribution to make.
+PROFESSOR: The faculty are the ones who need a greater voice. Professors can be fired without explanation, and they have no control over who is promoted or given tenure. Their opinions about budgetary allotments are completely ignored. Why aren’t you concerned about the injustice the faculty is experiencing?</t>
+  </si>
+  <si>
+    <t>SUSAN: Congressman, in spite of the landmark Supreme Court decision prohibiting state-sponsored prayer in public schools, there is still prayer going on in the schools. It seems to me that the spirit of the court decision is still being violated after all these years. The state is still sponsoring the prayer, even though schools claim that it is the students who initiate it. There are prayers in assemblies, before athletic games, even before classes. And the teachers and coaches are participating in them. It’s almost like there is more prayer than there was before. What do you think can be done about it?
+CONGRESSMAN CREED: I think that as long as there are math tests in school, there will always be prayer in school.</t>
+  </si>
+  <si>
+    <t>CHALLENGER: That’s why you should vote Democrat in this years election. A better deal: better skills, better jobs, better wages.
+INCUMBENT: Nice slogan Papa John.
+(NOTE: this is a true story)</t>
+  </si>
+  <si>
+    <t>PROFESSOR LANG: It doesn’t make much sense any more to prepare for a specific vocation during college. In a technological age, change happens so rapidly that job training usually becomes obsolete within eight years. I suggest that we maintain a strong nonvocationally oriented, liberal arts curriculum. That way, our students will be prepared to go in a number of different vocational directions.
+PROFESSOR REID: I’m not so sure, John. I think there are a lot of technological jobs that last longer than eight years.</t>
+  </si>
+  <si>
+    <t>PROFESSOR WILSON: I think the administration is entirely justified in dismissing Professor Frederick. He’s never prepared for his lectures, he makes off-color remarks to his female students, he grades arbitrarily, and he isn’t even very friendly. 
+PROFESSOR DAY: I disagree. He’s very friendly to me; he says “hello” to me every time I see him.</t>
+  </si>
+  <si>
+    <t>TERRY: You know, Julie, with all this stuff about AIDS, you really should be more careful about who you sleep with.
+JULIE: Me be careful? You’ve had at least a half dozen partners since Christmas!</t>
+  </si>
+  <si>
+    <t>TONYA: Just stop yelling at me! The only way that we’re ever going to solve any problem is to sit down and talk calmly about it. Screaming at me won’t help in any way!
+MARK: Well, you don’t yell! You just cry all the time! Do you think that’s any better!</t>
+  </si>
+  <si>
+    <t>HENRY: I’ve gone off my diet. It just wasn’t working.
+RICHARD: But I thought it was working really well. Haven’t you already lost about twenty pounds?
+HENRY: Sure, I’ve lost weight, but my social life hasn’t improved one bit!</t>
+  </si>
+  <si>
+    <t>I think we should hire Karen Cox as the new third-grade teacher. She lives here in the community, she has children in school here, she loves to work with children, and she has been active in the PTA.</t>
+  </si>
+  <si>
+    <t>Exam 2</t>
+  </si>
+  <si>
+    <t>Exam 1</t>
   </si>
 </sst>
 </file>
@@ -275,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,37 +531,373 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -339,6 +908,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{125BF917-7D07-4085-ADB6-30E183660411}" name="Table1" displayName="Table1" ref="B2:G34" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:G34" xr:uid="{1E38DD87-80F8-45AB-A2BF-5C5C06F47BB4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2B633BC0-9A67-422B-B9A1-0BFB29EC6866}" name="Fallacy" dataDxfId="6" dataCellStyle="60% - Accent3"/>
+    <tableColumn id="2" xr3:uid="{BDCEFEC7-CCC4-4348-8831-9CBF3676539C}" name="Parent" dataDxfId="5" dataCellStyle="60% - Accent3"/>
+    <tableColumn id="3" xr3:uid="{7725EA88-5F6A-4B6A-BAC3-F3455FFE883D}" name="Page" dataDxfId="4" dataCellStyle="60% - Accent3"/>
+    <tableColumn id="4" xr3:uid="{A7363ECA-8520-4830-B424-7E8264DBCA78}" name="Definition" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{77C3A8D4-B943-4A48-9E09-B19D4E87C132}" name="Exam 2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{8EF14FB1-E1FF-4E61-BCB1-FB82808074FF}" name="Exam 1" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,160 +1188,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="77.90625" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="7" max="7" width="44.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="F2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
         <v>214</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>111</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>113</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="5">
-        <v>113</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>109</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>117</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3">
         <v>115</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>176</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
         <v>221</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -766,182 +1401,272 @@
       <c r="D12" s="3">
         <v>69</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
         <v>142</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>130</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>149</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>103</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>130</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>149</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="F16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>151</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+      <c r="E17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>180</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
         <v>160</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+      <c r="E19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>153</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <v>99</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <v>176</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
+      <c r="E22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
         <v>155</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
         <v>119</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+      <c r="E24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <v>158</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
+      <c r="E25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
         <v>216</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -950,96 +1675,144 @@
       <c r="D27" s="3">
         <v>66</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+      <c r="E27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>66</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
+      <c r="E28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
         <v>101</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+      <c r="E29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
         <v>223</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
+      <c r="E30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
         <v>225</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+      <c r="E31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
         <v>211</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
+      <c r="E32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2">
         <v>218</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18">
         <v>105</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>39</v>
+      <c r="E34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1048,5 +1821,8 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>